--- a/lib/basic_inflections.xlsx
+++ b/lib/basic_inflections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whitmer/Workspace/coughdrop/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B4B1C4-5046-F542-9365-C09DEE754B1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225C998B-FF7D-174F-A7C2-9E76E383D2F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="3060" windowWidth="26840" windowHeight="15940" xr2:uid="{B8EB2FE0-779C-0244-B1DA-87DE57F3F161}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>nobody</t>
   </si>
   <si>
-    <t>howdy</t>
-  </si>
-  <si>
     <t>greetings</t>
   </si>
   <si>
@@ -1246,6 +1243,9 @@
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>hi</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1658,13 +1658,13 @@
         <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1678,51 +1678,51 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
       <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N2" t="s">
-        <v>62</v>
-      </c>
       <c r="O2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -1731,46 +1731,46 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>406</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P3" t="s">
         <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1784,152 +1784,152 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" t="s">
         <v>342</v>
-      </c>
-      <c r="B5" t="s">
-        <v>343</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -1937,52 +1937,52 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -1993,49 +1993,49 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H8" t="s">
         <v>353</v>
       </c>
-      <c r="H8" t="s">
-        <v>354</v>
-      </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2069,205 +2069,205 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
         <v>120</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
         <v>121</v>
       </c>
-      <c r="C14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" t="s">
-        <v>122</v>
-      </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" t="s">
         <v>395</v>
       </c>
-      <c r="B15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C15" t="s">
-        <v>393</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>366</v>
+      </c>
+      <c r="G15" t="s">
         <v>146</v>
       </c>
-      <c r="E15" t="s">
-        <v>396</v>
-      </c>
-      <c r="F15" t="s">
-        <v>367</v>
-      </c>
-      <c r="G15" t="s">
-        <v>147</v>
-      </c>
       <c r="H15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
         <v>113</v>
       </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
       <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
         <v>116</v>
       </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
       <c r="E17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2292,227 +2292,227 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
         <v>127</v>
       </c>
-      <c r="B20" t="s">
-        <v>128</v>
-      </c>
       <c r="C20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" t="s">
+        <v>339</v>
+      </c>
+      <c r="F21" t="s">
         <v>129</v>
-      </c>
-      <c r="D21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E21" t="s">
-        <v>340</v>
-      </c>
-      <c r="F21" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="S28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="U28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="Y28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -2521,114 +2521,114 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
         <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P29" t="s">
         <v>6</v>
       </c>
       <c r="Q29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T29" t="s">
         <v>12</v>
       </c>
       <c r="U29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W29" t="s">
         <v>8</v>
       </c>
       <c r="X29" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y29" t="s">
         <v>316</v>
       </c>
-      <c r="Y29" t="s">
-        <v>317</v>
-      </c>
       <c r="Z29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N30" t="s">
         <v>4</v>
@@ -2637,75 +2637,75 @@
         <v>10</v>
       </c>
       <c r="P30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W30" t="s">
         <v>21</v>
       </c>
       <c r="X30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s">
         <v>0</v>
@@ -2714,40 +2714,40 @@
         <v>2</v>
       </c>
       <c r="O31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
@@ -2758,316 +2758,316 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W32" t="s">
         <v>17</v>
       </c>
       <c r="X32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W33" t="s">
         <v>14</v>
       </c>
       <c r="X33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Z33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y35" t="s">
         <v>1</v>
       </c>
       <c r="Z35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
